--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/43.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/43.xlsx
@@ -479,13 +479,13 @@
         <v>-0.3565382565948028</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.60818387919792</v>
+        <v>-1.604037125822853</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05860163303574548</v>
+        <v>0.06465845861451053</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1868524827590051</v>
+        <v>-0.1851147656490891</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3667766191476082</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.544515592750868</v>
+        <v>-1.537925961699542</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0840377820359646</v>
+        <v>0.09056209129375595</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1881038279604391</v>
+        <v>-0.18658017745102</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3943848543365152</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.650205467679284</v>
+        <v>-1.644450853771809</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09659215854745888</v>
+        <v>0.1026348179541322</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1857884458330058</v>
+        <v>-0.1838539763329273</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.4348330063487494</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.698320084179203</v>
+        <v>-1.691763507529426</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1385555083213352</v>
+        <v>0.1458668271397769</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2167273656812921</v>
+        <v>-0.2148715971372786</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.478404315029658</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.781857213994434</v>
+        <v>-1.781359036942543</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2249959164058051</v>
+        <v>0.2342133723801419</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2644972719936467</v>
+        <v>-0.2642595951063303</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.5117435538430409</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.707516290895403</v>
+        <v>-1.709338218028308</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2980807722460386</v>
+        <v>0.3094829667607408</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2748590398691692</v>
+        <v>-0.2756082729709082</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.525534639129915</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.535564933017591</v>
+        <v>-1.540183105119487</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3687983033278359</v>
+        <v>0.3786249047021161</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2770453524286558</v>
+        <v>-0.2786618700662316</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.5171421907967054</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.178917384436796</v>
+        <v>-1.183946375529352</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3996774104495128</v>
+        <v>0.4074357506984039</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2725704160667979</v>
+        <v>-0.2752399524965239</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.4903094945732944</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.780371020866098</v>
+        <v>-0.785914716211319</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4378347819880841</v>
+        <v>0.4458512613728685</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2326831975139172</v>
+        <v>-0.235472359396862</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.4489996350321857</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.256076269694688</v>
+        <v>-0.2592762505682923</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4085139537964949</v>
+        <v>0.4160676715596169</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1747671639456584</v>
+        <v>-0.1779309423794728</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.397579336558005</v>
       </c>
       <c r="E12" t="n">
-        <v>0.314231782449705</v>
+        <v>0.3129379387319958</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2818699493157629</v>
+        <v>0.2888412800040036</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1204729483755125</v>
+        <v>-0.1239027360408267</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.3388649736162645</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8960459143708061</v>
+        <v>0.8958806423630694</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08646334550188896</v>
+        <v>0.09164501644921082</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.007760587137412816</v>
+        <v>-0.01052928677178072</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.2752265951114033</v>
       </c>
       <c r="E14" t="n">
-        <v>1.596476553254006</v>
+        <v>1.603432143751033</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003120607048138839</v>
+        <v>0.01043664792394444</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08985063465092803</v>
+        <v>0.08778866960202414</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.2092122569843537</v>
       </c>
       <c r="E15" t="n">
-        <v>2.257660599366694</v>
+        <v>2.271417526486862</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1411256532660988</v>
+        <v>-0.1317334811692976</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2067813671341135</v>
+        <v>0.2044974653891062</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.1417172259403982</v>
       </c>
       <c r="E16" t="n">
-        <v>2.856629965690851</v>
+        <v>2.872049057003113</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2698347708339773</v>
+        <v>-0.257525941305406</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3109216202376097</v>
+        <v>0.3081371804120287</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.07235121176116721</v>
       </c>
       <c r="E17" t="n">
-        <v>3.393054108211004</v>
+        <v>3.408057658475242</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3857124845250127</v>
+        <v>-0.3679748630470752</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3963924325433583</v>
+        <v>0.3933419834862775</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.0002559011850331848</v>
       </c>
       <c r="E18" t="n">
-        <v>3.864501167384744</v>
+        <v>3.881297525428143</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5665342271609144</v>
+        <v>-0.547294991441256</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4938541225151756</v>
+        <v>0.4892957631398888</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.07437883331757426</v>
       </c>
       <c r="E19" t="n">
-        <v>4.240153422836123</v>
+        <v>4.25709144260044</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7693560350552358</v>
+        <v>-0.7486608316483744</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6160562450355971</v>
+        <v>0.6117513027388397</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.1533966942385687</v>
       </c>
       <c r="E20" t="n">
-        <v>4.517725398801014</v>
+        <v>4.531743613095318</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.9781370793428016</v>
+        <v>-0.9565777394383461</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7227007625610826</v>
+        <v>0.7186256270560351</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.240450239257787</v>
       </c>
       <c r="E21" t="n">
-        <v>4.727809730921017</v>
+        <v>4.740419198101756</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.100554055473281</v>
+        <v>-1.076476284974744</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8650424597385463</v>
+        <v>0.8616835029336907</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.3382628419654106</v>
       </c>
       <c r="E22" t="n">
-        <v>4.875583368086089</v>
+        <v>4.885839676680485</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.268779710090974</v>
+        <v>-1.242581735836045</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9660645809627458</v>
+        <v>0.963385600418292</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.4468186615364185</v>
       </c>
       <c r="E23" t="n">
-        <v>4.923938809511568</v>
+        <v>4.930334049201413</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.517657317474553</v>
+        <v>-1.495216526862169</v>
       </c>
       <c r="G23" t="n">
-        <v>1.020324168112223</v>
+        <v>1.016118389020108</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.561613566059851</v>
       </c>
       <c r="E24" t="n">
-        <v>4.975346274013249</v>
+        <v>4.979082995407216</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.723668875118191</v>
+        <v>-1.704104604449983</v>
       </c>
       <c r="G24" t="n">
-        <v>1.116713951062435</v>
+        <v>1.114244315061114</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.675942295186703</v>
       </c>
       <c r="E25" t="n">
-        <v>4.943617196566069</v>
+        <v>4.944105142493672</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.883959899345407</v>
+        <v>-1.86740908828493</v>
       </c>
       <c r="G25" t="n">
-        <v>1.163441856716488</v>
+        <v>1.161161103009724</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.7829906700257039</v>
       </c>
       <c r="E26" t="n">
-        <v>4.932081210426056</v>
+        <v>4.932816277355704</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.94565751385259</v>
+        <v>-1.929064204275839</v>
       </c>
       <c r="G26" t="n">
-        <v>1.192373902185116</v>
+        <v>1.190378045939307</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8772989081135113</v>
       </c>
       <c r="E27" t="n">
-        <v>4.839051958299822</v>
+        <v>4.837216652004385</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.030699405947785</v>
+        <v>-2.01691021143563</v>
       </c>
       <c r="G27" t="n">
-        <v>1.212593751817345</v>
+        <v>1.210479844137438</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9541868222244477</v>
       </c>
       <c r="E28" t="n">
-        <v>4.722297515958222</v>
+        <v>4.719668904025649</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.094647080788868</v>
+        <v>-2.082989895176515</v>
       </c>
       <c r="G28" t="n">
-        <v>1.20100739706545</v>
+        <v>1.198511002739068</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.009837110258563</v>
       </c>
       <c r="E29" t="n">
-        <v>4.600287423770599</v>
+        <v>4.596182381902247</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.185283036841164</v>
+        <v>-2.177683672523525</v>
       </c>
       <c r="G29" t="n">
-        <v>1.166306571517255</v>
+        <v>1.163404080257577</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.041974058153995</v>
       </c>
       <c r="E30" t="n">
-        <v>4.497102600273733</v>
+        <v>4.490847448285684</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.187060891438674</v>
+        <v>-2.180475195435152</v>
       </c>
       <c r="G30" t="n">
-        <v>1.120159478918962</v>
+        <v>1.116392851161689</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.050330364964331</v>
       </c>
       <c r="E31" t="n">
-        <v>4.310057186032208</v>
+        <v>4.302813550035983</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.150499575289101</v>
+        <v>-2.145025136785217</v>
       </c>
       <c r="G31" t="n">
-        <v>1.054001881231573</v>
+        <v>1.049984984434013</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.036427216671067</v>
       </c>
       <c r="E32" t="n">
-        <v>4.124966703539338</v>
+        <v>4.115890909285919</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.069029919589699</v>
+        <v>-2.062707871788995</v>
       </c>
       <c r="G32" t="n">
-        <v>1.027103468467665</v>
+        <v>1.02241446550531</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.002490842809606</v>
       </c>
       <c r="E33" t="n">
-        <v>3.909499226024487</v>
+        <v>3.898920243510226</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.012247966798337</v>
+        <v>-2.006583071980776</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9444989449818051</v>
+        <v>0.9403246462721156</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.95167649200881</v>
       </c>
       <c r="E34" t="n">
-        <v>3.696447867860833</v>
+        <v>3.683449617957132</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.91345544365946</v>
+        <v>-1.906921690286941</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8546397673658701</v>
+        <v>0.8490866279059213</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.8873426040956492</v>
       </c>
       <c r="E35" t="n">
-        <v>3.457777774478888</v>
+        <v>3.445028219596353</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.849581747717078</v>
+        <v>-1.84321877541922</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7849563668467674</v>
+        <v>0.7787657496426917</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8130444402381086</v>
       </c>
       <c r="E36" t="n">
-        <v>3.224213799126443</v>
+        <v>3.211132126209313</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.768606334021764</v>
+        <v>-1.760607955856875</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7314680490667274</v>
+        <v>0.7259463899892046</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7324132462791483</v>
       </c>
       <c r="E37" t="n">
-        <v>3.037226623592407</v>
+        <v>3.02660514256187</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.695400278709191</v>
+        <v>-1.685041658871911</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6703740708925625</v>
+        <v>0.6646241790424511</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6505576453058518</v>
       </c>
       <c r="E38" t="n">
-        <v>2.80447169406831</v>
+        <v>2.790826522305755</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.626489721578647</v>
+        <v>-1.616738673122189</v>
       </c>
       <c r="G38" t="n">
-        <v>0.59084045871236</v>
+        <v>0.5842122641925629</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5721204052020602</v>
       </c>
       <c r="E39" t="n">
-        <v>2.556590440788514</v>
+        <v>2.542249552574343</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.576186431490559</v>
+        <v>-1.565679066846316</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5323656483560395</v>
+        <v>0.5272296239632354</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5004425803430163</v>
       </c>
       <c r="E40" t="n">
-        <v>2.310564956052731</v>
+        <v>2.296502669223031</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.50608434188519</v>
+        <v>-1.494874177703286</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5046943922035734</v>
+        <v>0.5000966823502541</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4372004590004417</v>
       </c>
       <c r="E41" t="n">
-        <v>2.109652433352548</v>
+        <v>2.094280562613925</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.482167121337026</v>
+        <v>-1.471418144757664</v>
       </c>
       <c r="G41" t="n">
-        <v>0.432243866069224</v>
+        <v>0.4262405571405832</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.3830949604881545</v>
       </c>
       <c r="E42" t="n">
-        <v>1.904433394336485</v>
+        <v>1.889538451391617</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.446684795295105</v>
+        <v>-1.435397504176258</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4150099307101028</v>
+        <v>0.410692396260375</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3375407895042685</v>
       </c>
       <c r="E43" t="n">
-        <v>1.75841164045342</v>
+        <v>1.745085994572489</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.411010438920386</v>
+        <v>-1.40104453685387</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3699378931716577</v>
+        <v>0.3649136241364658</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2988438877581269</v>
       </c>
       <c r="E44" t="n">
-        <v>1.524408513766132</v>
+        <v>1.509441165941684</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.370606942095718</v>
+        <v>-1.360714231918344</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3165833670169282</v>
+        <v>0.3120769502726443</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2648630795512154</v>
       </c>
       <c r="E45" t="n">
-        <v>1.327251600689372</v>
+        <v>1.31051348135346</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.315739783565419</v>
+        <v>-1.306094981399649</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2986206608046448</v>
+        <v>0.2954930848106203</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2345175286571794</v>
       </c>
       <c r="E46" t="n">
-        <v>1.167568934852539</v>
+        <v>1.151562734408032</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.270001935938664</v>
+        <v>-1.26186583110066</v>
       </c>
       <c r="G46" t="n">
-        <v>0.275353510153578</v>
+        <v>0.2731388652499079</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2066159915924612</v>
       </c>
       <c r="E47" t="n">
-        <v>1.020300557825404</v>
+        <v>1.005624403538396</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.19205257400405</v>
+        <v>-1.183636293762456</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2456187149330867</v>
+        <v>0.2441092305957593</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1800900195705021</v>
       </c>
       <c r="E48" t="n">
-        <v>0.872018512484151</v>
+        <v>0.85712042150104</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.17186735279249</v>
+        <v>-1.166018297737737</v>
       </c>
       <c r="G48" t="n">
-        <v>0.206165925657685</v>
+        <v>0.2047918069647895</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1537877194139036</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7405989339893927</v>
+        <v>0.7275676296841443</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.091651403323204</v>
+        <v>-1.084121295846902</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1656947460108017</v>
+        <v>0.1651611535286807</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1277440069490332</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6084191042590461</v>
+        <v>0.5952099357930908</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.034360255346102</v>
+        <v>-1.026630247441394</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1231962297356831</v>
+        <v>0.1224296824236097</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.101556613944383</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4908383018787634</v>
+        <v>0.4766784258635425</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9734740476959484</v>
+        <v>-0.9646288472437992</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1025907454187358</v>
+        <v>0.1024380655639696</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.07497542270288242</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3721918885533602</v>
+        <v>0.3591558621907479</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9469250671769697</v>
+        <v>-0.9380373682085453</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06057230497561394</v>
+        <v>0.06004973062734212</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.04793322948208999</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2133607670611504</v>
+        <v>0.1983241623953649</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.927461533732526</v>
+        <v>-0.9192734862635198</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02327434787727285</v>
+        <v>0.0227171451083324</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.02108172733153736</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1097336441911983</v>
+        <v>0.09630253902913956</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8808973260670877</v>
+        <v>-0.872109577312866</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01300994090695061</v>
+        <v>-0.01375602597044714</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.004767934571380852</v>
       </c>
       <c r="E55" t="n">
-        <v>0.01392782233498936</v>
+        <v>0.00273339834429887</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8547701826726176</v>
+        <v>-0.8446035931681365</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04125099198132755</v>
+        <v>-0.04169329135441304</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.02902975719509204</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.0832442481185086</v>
+        <v>-0.09514225865642049</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8528687675740864</v>
+        <v>-0.8426927339548774</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.04759428904016932</v>
+        <v>-0.04743688712803925</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.05115896830587367</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2156617547361716</v>
+        <v>-0.2296484886480495</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8409975153612366</v>
+        <v>-0.8302068272751597</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08927903742957544</v>
+        <v>-0.08886821843891596</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.07096211613303503</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3035534084504807</v>
+        <v>-0.3172489488249179</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7921887564288236</v>
+        <v>-0.7784271072512917</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1209388580354175</v>
+        <v>-0.1208664531558376</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.08855889863569415</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4229884053556556</v>
+        <v>-0.4390009018766475</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.8447720132141157</v>
+        <v>-0.8328094678922304</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1480151349600319</v>
+        <v>-0.1479269898892391</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1046009017419426</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4838541507572319</v>
+        <v>-0.4989631603025971</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8176359235628918</v>
+        <v>-0.8038034435249014</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1666389292032616</v>
+        <v>-0.1659432127516467</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1192664845331965</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5833919719500448</v>
+        <v>-0.5986804196752383</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8370050158600574</v>
+        <v>-0.8232772080936335</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1991676083640617</v>
+        <v>-0.1989267834385026</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.1332227157411211</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6721257258942497</v>
+        <v>-0.6868459527166537</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8782608440389091</v>
+        <v>-0.8643032294807752</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.224526630427337</v>
+        <v>-0.223113161256409</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.14656525936566</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7550655154529469</v>
+        <v>-0.7705302533197261</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8799001849537438</v>
+        <v>-0.8655081411181309</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2382394850121086</v>
+        <v>-0.2365206561316483</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.1596491513053804</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.8047761873418652</v>
+        <v>-0.8205698952049962</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8885352538531993</v>
+        <v>-0.8738244711455231</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2650198463419186</v>
+        <v>-0.2639479393203127</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1722788223104708</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8830789165692104</v>
+        <v>-0.8974268878694269</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8911929851395155</v>
+        <v>-0.8759486099497183</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2768486000384932</v>
+        <v>-0.2752541186686156</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.184221431148227</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9113624661598626</v>
+        <v>-0.924940742109763</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.902245747409289</v>
+        <v>-0.8872020596574577</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2910761588759301</v>
+        <v>-0.2899255508982593</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1954584313952718</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.981525942510962</v>
+        <v>-0.9946091894472133</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.8785512505667891</v>
+        <v>-0.8622192281641732</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.285584406161712</v>
+        <v>-0.2830171809748706</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.206012900186798</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.002902696197347</v>
+        <v>-1.015009264268831</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.9332240177356078</v>
+        <v>-0.9174263748246735</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3067644074579341</v>
+        <v>-0.3043829165274061</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2157586934353645</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.015677435385823</v>
+        <v>-1.027684053243105</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.9148733158099237</v>
+        <v>-0.8982367207073361</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3239999168361766</v>
+        <v>-0.3217191631294119</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2244055793509438</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.021018869273957</v>
+        <v>-1.03101861275158</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9491027226312891</v>
+        <v>-0.9325046909971734</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.3239904727214488</v>
+        <v>-0.3213177882534802</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2317140861944553</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9882438561206733</v>
+        <v>-0.9969702181291644</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9928171686776125</v>
+        <v>-0.9766700935217494</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3210376128498887</v>
+        <v>-0.3174944958078408</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2376121112111227</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9266957734300132</v>
+        <v>-0.9329218060643181</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.04996901596248</v>
+        <v>-1.034568025870113</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2948317684993536</v>
+        <v>-0.2902372066842768</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2420332189120703</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8582109884717809</v>
+        <v>-0.8632761820041266</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.086184047905366</v>
+        <v>-1.072069031435102</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.29860311831399</v>
+        <v>-0.2951261100750368</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.2447398151080382</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8007608645634271</v>
+        <v>-0.8042725012230489</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.131142756067078</v>
+        <v>-1.118201957861304</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2955589653333945</v>
+        <v>-0.2921701021652341</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2457512519096407</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6792277001695585</v>
+        <v>-0.6806868158950041</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.171166914283511</v>
+        <v>-1.160022858904703</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2643776465404278</v>
+        <v>-0.2601687194100698</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2449127865338913</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.536756933424148</v>
+        <v>-0.5366483261047782</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.232960543957095</v>
+        <v>-1.223495179971153</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2347939571555814</v>
+        <v>-0.2301238424226823</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2419625239215782</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4174620242207688</v>
+        <v>-0.415944669787835</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.232233347123054</v>
+        <v>-1.22291121887715</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1973732265657789</v>
+        <v>-0.1925457099207497</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.2363801650912823</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2829888486306872</v>
+        <v>-0.2811645604690997</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.264872994631905</v>
+        <v>-1.255969555472268</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.1761963733077994</v>
+        <v>-0.171702548716486</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2277820755932985</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1362761003533714</v>
+        <v>-0.1332303733536545</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.285579216172616</v>
+        <v>-1.278872320696754</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1402095741375018</v>
+        <v>-0.1349492022341149</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2158620740681429</v>
       </c>
       <c r="E80" t="n">
-        <v>0.005014152051063567</v>
+        <v>0.007551470874600275</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.271985200031502</v>
+        <v>-1.265501028261304</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1133032912779878</v>
+        <v>-0.1083592972179824</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.200906194197526</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1581331581520732</v>
+        <v>0.1594805185199066</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.310418811925862</v>
+        <v>-1.305647172959639</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.09420571727924659</v>
+        <v>-0.08958597115822907</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1842155261474377</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2696744491639251</v>
+        <v>0.2702001715504395</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.314488438363985</v>
+        <v>-1.30892821581799</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.02352596265636051</v>
+        <v>-0.01713544502387971</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.1675636899753608</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4312002913918017</v>
+        <v>0.4310901100533107</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.292067322990617</v>
+        <v>-1.28811338695791</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.01030892409479863</v>
+        <v>-0.004669213583178265</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1527533247070761</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5646786868972213</v>
+        <v>0.5630794834699798</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.291654142971276</v>
+        <v>-1.289201821180289</v>
       </c>
       <c r="G84" t="n">
-        <v>0.06858406230303445</v>
+        <v>0.07727107383349294</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1409699847455786</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7030601519654925</v>
+        <v>0.7017159396359018</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.239010286449814</v>
+        <v>-1.236942812333985</v>
       </c>
       <c r="G85" t="n">
-        <v>0.107758250193966</v>
+        <v>0.1170323708566696</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1328089720695096</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8891816169828137</v>
+        <v>0.8882671118733381</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.198348650489253</v>
+        <v>-1.197542752699147</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1517977311888379</v>
+        <v>0.1611426827120001</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.128777217974506</v>
       </c>
       <c r="E87" t="n">
-        <v>1.011685951174525</v>
+        <v>1.011372721369386</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.06481752534327</v>
+        <v>-1.062955460722771</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1823022217596452</v>
+        <v>0.1911922817567515</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1287450651900382</v>
       </c>
       <c r="E88" t="n">
-        <v>1.146321250734101</v>
+        <v>1.146680127093757</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9499495449185489</v>
+        <v>-0.9482157628564362</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2138125105489637</v>
+        <v>0.2222649932303484</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1318157270789177</v>
       </c>
       <c r="E89" t="n">
-        <v>1.251583779471084</v>
+        <v>1.251125739906786</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8640120359433346</v>
+        <v>-0.8631416033692554</v>
       </c>
       <c r="G89" t="n">
-        <v>0.225786074004698</v>
+        <v>0.2343471640054525</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1364289508065734</v>
       </c>
       <c r="E90" t="n">
-        <v>1.328890154594646</v>
+        <v>1.328830341868037</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.746732658224781</v>
+        <v>-0.747648737353378</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1947432688944059</v>
+        <v>0.2001453025187098</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1407054434400263</v>
       </c>
       <c r="E91" t="n">
-        <v>1.320851638942163</v>
+        <v>1.319375209006383</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6054219435717691</v>
+        <v>-0.607567331634102</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1898449213889181</v>
+        <v>0.1955428706080266</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1428208980855533</v>
       </c>
       <c r="E92" t="n">
-        <v>1.308072177696323</v>
+        <v>1.305693834804038</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4731067481969908</v>
+        <v>-0.4762736746690477</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1655641024237337</v>
+        <v>0.1701004255313223</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1417549367205259</v>
       </c>
       <c r="E93" t="n">
-        <v>1.27764481406246</v>
+        <v>1.274463721418311</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3367353055466205</v>
+        <v>-0.340999323346224</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1587438775711378</v>
+        <v>0.1629103061852208</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.137975352483599</v>
       </c>
       <c r="E94" t="n">
-        <v>1.19816314451326</v>
+        <v>1.193441087149358</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1872412654819663</v>
+        <v>-0.1914108421342919</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1401499896912128</v>
+        <v>0.1448075122711416</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1331797939192495</v>
       </c>
       <c r="E95" t="n">
-        <v>1.165788719226347</v>
+        <v>1.160670009043878</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09301890686178588</v>
+        <v>-0.09878139086486769</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1214742528169802</v>
+        <v>0.1265646306552666</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1290935752983767</v>
       </c>
       <c r="E96" t="n">
-        <v>1.123937124810084</v>
+        <v>1.120795382643967</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01293304225032733</v>
+        <v>0.007954419769653252</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05460362446764173</v>
+        <v>0.0577312004616662</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1281021894973944</v>
       </c>
       <c r="E97" t="n">
-        <v>1.030152343505625</v>
+        <v>1.024997430883365</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06876979655934792</v>
+        <v>0.06502520506977359</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03032437952157863</v>
+        <v>0.03248393375600317</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1326214691029405</v>
       </c>
       <c r="E98" t="n">
-        <v>1.004508423981394</v>
+        <v>1.000693001631361</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1025561169980672</v>
+        <v>0.09977797324897147</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.008714442724921032</v>
+        <v>-0.00728995542014391</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1438336427941179</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9790707009620534</v>
+        <v>0.976870222230475</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1659560331849376</v>
+        <v>0.1655641024237337</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.02643160195428157</v>
+        <v>-0.02549506057710766</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1651905628365369</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8885283990474739</v>
+        <v>0.8866191138533362</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1545333764216585</v>
+        <v>0.1542642191519161</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.03666430026185735</v>
+        <v>-0.03640773514508534</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1934211450492123</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8074758584152163</v>
+        <v>0.8051400140392061</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1424653718186461</v>
+        <v>0.142584997271865</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06521071104576662</v>
+        <v>-0.06525950563852694</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2335960450129804</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6860937998569925</v>
+        <v>0.6833471364903227</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1377417404356228</v>
+        <v>0.137779516894534</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.0832552662523577</v>
+        <v>-0.08291213008391415</v>
       </c>
     </row>
   </sheetData>
